--- a/Plan/plan/bin/Debug/plan.xlsx
+++ b/Plan/plan/bin/Debug/plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gonets\plan\plan\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CyberTrading\Gonets\Plan\plan\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8828F1DB-1565-48C4-84A5-6BC4B827B2AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91CE5A3-4DC0-4956-B563-133BF4C5272F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10404" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="57">
   <si>
     <t>Алешин</t>
   </si>
@@ -168,19 +168,34 @@
     <t>11-20</t>
   </si>
   <si>
-    <t>11-15</t>
-  </si>
-  <si>
     <t>9-10</t>
-  </si>
-  <si>
-    <t>18-19</t>
   </si>
   <si>
     <t>20-24</t>
   </si>
   <si>
     <t>9-16</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>0-7</t>
+  </si>
+  <si>
+    <t>9-18</t>
+  </si>
+  <si>
+    <t>18-20</t>
+  </si>
+  <si>
+    <t>9-17</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>16-20</t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AF24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,11 +1406,11 @@
       <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
+      <c r="G4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>31</v>
@@ -1406,38 +1421,38 @@
       <c r="K4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>31</v>
@@ -1448,40 +1463,40 @@
       <c r="Y4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="3" t="s">
-        <v>30</v>
+      <c r="AB4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF4" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1492,77 +1507,77 @@
       <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>30</v>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>30</v>
+      <c r="P5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>31</v>
+      <c r="AA5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="3" t="s">
-        <v>30</v>
+      <c r="AE5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>30</v>
@@ -1572,288 +1587,288 @@
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="M6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="T6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="V6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>32</v>
+      <c r="AE6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="R7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="T7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="Z7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="AC7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="4" t="s">
+      <c r="AF7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="J8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="L8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="O8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>32</v>
+      <c r="AD8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="AE8" s="3" t="s">
         <v>30</v>
@@ -1873,7 +1888,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1881,11 +1896,11 @@
       <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>31</v>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>31</v>
@@ -1896,17 +1911,17 @@
       <c r="K9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>31</v>
@@ -1917,17 +1932,17 @@
       <c r="R9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>31</v>
@@ -1938,17 +1953,17 @@
       <c r="Y9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="AD9" s="4" t="s">
         <v>31</v>
@@ -1956,106 +1971,106 @@
       <c r="AE9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AF9" s="4" t="s">
-        <v>31</v>
+      <c r="AF9" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF10" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -2063,88 +2078,88 @@
         <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="L11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="4" t="s">
+      <c r="S11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="X11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>32</v>
+      <c r="Z11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AB11" s="3" t="s">
-        <v>30</v>
+      <c r="AB11" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>30</v>
@@ -2153,161 +2168,161 @@
         <v>30</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U12" s="4" t="s">
+      <c r="W12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="AE12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF12" s="3" t="s">
-        <v>30</v>
+      <c r="AF12" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>30</v>
+      <c r="H13" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>45</v>
+      <c r="L13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>30</v>
+      <c r="N13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>30</v>
@@ -2325,129 +2340,129 @@
         <v>30</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF13" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF14" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -2455,195 +2470,195 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>30</v>
+      <c r="H15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="L15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="AB15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>32</v>
+      <c r="AD15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF15" s="4" t="s">
-        <v>34</v>
+      <c r="AF15" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="H16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="J16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="M16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="T16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="V16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="4" t="s">
+      <c r="Y16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S16" s="4" t="s">
+      <c r="AB16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>32</v>
+      <c r="AE16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
@@ -2657,7 +2672,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
@@ -2665,128 +2680,130 @@
       <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>36</v>
+      <c r="G17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="G18" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="H18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="K18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="M18" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="N18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="8" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>30</v>
@@ -2794,17 +2811,17 @@
       <c r="Q18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S18" s="7" t="s">
+      <c r="R18" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="S18" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="T18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="8" t="s">
-        <v>30</v>
+      <c r="U18" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="V18" s="8" t="s">
         <v>30</v>
@@ -2812,128 +2829,130 @@
       <c r="W18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y18" s="7" t="s">
+      <c r="X18" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="Y18" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="Z18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AA18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AB18" s="7" t="s">
+      <c r="AB18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AC18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF18" s="7" t="s">
-        <v>34</v>
+      <c r="AE18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:32" s="11" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
+      <c r="B19" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE19" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
@@ -2946,12 +2965,12 @@
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="E20" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="8" t="s">
         <v>30</v>
       </c>
@@ -2964,72 +2983,74 @@
       <c r="I20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="K20" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="L20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="7" t="s">
+      <c r="M20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="X20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF20" s="8" t="s">
-        <v>30</v>
+      <c r="AF20" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
@@ -3042,12 +3063,12 @@
       <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="E21" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="8" t="s">
         <v>30</v>
       </c>
@@ -3060,84 +3081,86 @@
       <c r="I21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="K21" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="L21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="M21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="W21" s="7" t="s">
+      <c r="W21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC21" s="7" t="s">
+      <c r="AC21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AD21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF21" s="8" t="s">
-        <v>30</v>
+      <c r="AF21" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="C22" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
@@ -3150,17 +3173,17 @@
       <c r="G22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="I22" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>30</v>
+      <c r="K22" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>30</v>
@@ -3168,51 +3191,53 @@
       <c r="M22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="O22" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="P22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="Q22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="7"/>
+      <c r="R22" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="S22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="U22" s="7" t="s">
+      <c r="T22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="V22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="W22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="X22" s="7" t="s">
+      <c r="U22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC22" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Y22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC22" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="AD22" s="8" t="s">
         <v>30</v>
@@ -3240,33 +3265,35 @@
       <c r="E23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="G23" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="H23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="K23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="M23" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="N23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="8" t="s">
-        <v>30</v>
+      <c r="O23" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>30</v>
@@ -3274,17 +3301,17 @@
       <c r="Q23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S23" s="7" t="s">
+      <c r="R23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>30</v>
+      <c r="S23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="V23" s="8" t="s">
         <v>30</v>
@@ -3292,127 +3319,127 @@
       <c r="W23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="X23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y23" s="7" t="s">
+      <c r="X23" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="Y23" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="Z23" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AA23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AB23" s="7" t="s">
+      <c r="AB23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AC23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="7" t="s">
-        <v>33</v>
+      <c r="AE23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>34</v>
+      <c r="C24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>34</v>
+        <v>55</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y24" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE24" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="AF24" s="8" t="s">
         <v>30</v>
@@ -3432,8 +3459,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q652"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C631"/>
+    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3477,7 +3504,7 @@
       <c r="N2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3487,12 +3514,12 @@
       </c>
       <c r="C3" s="5" t="str">
         <f>Оригинал!B5</f>
-        <v>вых</v>
+        <v>9-13</v>
       </c>
       <c r="N3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3502,12 +3529,12 @@
       </c>
       <c r="C4" s="5" t="str">
         <f>Оригинал!B6</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
       <c r="N4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3517,12 +3544,12 @@
       </c>
       <c r="C5" s="5" t="str">
         <f>Оригинал!B7</f>
-        <v>9-24</v>
+        <v>вых</v>
       </c>
       <c r="N5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3532,7 +3559,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f>Оригинал!B8</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,10 +3585,10 @@
       </c>
       <c r="C8" s="5" t="str">
         <f>Оригинал!B10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3571,10 +3598,10 @@
       </c>
       <c r="C9" s="5" t="str">
         <f>Оригинал!B11</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3584,10 +3611,10 @@
       </c>
       <c r="C10" s="5" t="str">
         <f>Оригинал!B12</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3597,10 +3624,10 @@
       </c>
       <c r="C11" s="5" t="str">
         <f>Оригинал!B13</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3610,10 +3637,10 @@
       </c>
       <c r="C12" s="5" t="str">
         <f>Оригинал!B14</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3623,10 +3650,10 @@
       </c>
       <c r="C13" s="5" t="str">
         <f>Оригинал!B15</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3636,7 +3663,7 @@
       </c>
       <c r="C14" s="5" t="str">
         <f>Оригинал!B16</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3689,7 @@
       </c>
       <c r="C16" s="5" t="str">
         <f>Оригинал!B18</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -3717,7 +3744,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3727,7 +3754,7 @@
       </c>
       <c r="C21" s="5" t="str">
         <f>Оригинал!B22</f>
-        <v>вых</v>
+        <v>0-11</v>
       </c>
     </row>
     <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -3766,10 +3793,10 @@
       </c>
       <c r="C24" s="9" t="str">
         <f>Оригинал!C5</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3779,7 +3806,7 @@
       </c>
       <c r="C25" s="9" t="str">
         <f>Оригинал!C6</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -3805,7 +3832,7 @@
       </c>
       <c r="C27" s="9" t="str">
         <f>Оригинал!C8</f>
-        <v>9-24</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3821,7 +3848,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3831,10 +3858,10 @@
       </c>
       <c r="C29" s="9" t="str">
         <f>Оригинал!C10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3844,7 +3871,7 @@
       </c>
       <c r="C30" s="9" t="str">
         <f>Оригинал!C11</f>
-        <v>отп</v>
+        <v>18-22</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3870,7 +3897,7 @@
       </c>
       <c r="C32" s="9" t="str">
         <f>Оригинал!C13</f>
-        <v>18-19</v>
+        <v>18-22</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -3886,7 +3913,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3896,10 +3923,10 @@
       </c>
       <c r="C34" s="9" t="str">
         <f>Оригинал!C15</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3909,7 +3936,7 @@
       </c>
       <c r="C35" s="9" t="str">
         <f>Оригинал!C16</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -3935,7 +3962,7 @@
       </c>
       <c r="C37" s="9" t="str">
         <f>Оригинал!C18</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -3990,7 +4017,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -4000,7 +4027,7 @@
       </c>
       <c r="C42" s="9" t="str">
         <f>Оригинал!C22</f>
-        <v>0-11</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4039,10 +4066,10 @@
       </c>
       <c r="C45" s="5" t="str">
         <f>Оригинал!D5</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -4052,10 +4079,10 @@
       </c>
       <c r="C46" s="5" t="str">
         <f>Оригинал!D6</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -4065,10 +4092,10 @@
       </c>
       <c r="C47" s="5" t="str">
         <f>Оригинал!D7</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4078,7 +4105,7 @@
       </c>
       <c r="C48" s="5" t="str">
         <f>Оригинал!D8</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -4091,10 +4118,10 @@
       </c>
       <c r="C49" s="5" t="str">
         <f>Оригинал!D9</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4104,10 +4131,10 @@
       </c>
       <c r="C50" s="5" t="str">
         <f>Оригинал!D10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -4117,10 +4144,10 @@
       </c>
       <c r="C51" s="5" t="str">
         <f>Оригинал!D11</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -4130,10 +4157,10 @@
       </c>
       <c r="C52" s="5" t="str">
         <f>Оригинал!D12</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4143,10 +4170,10 @@
       </c>
       <c r="C53" s="5" t="str">
         <f>Оригинал!D13</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -4156,7 +4183,7 @@
       </c>
       <c r="C54" s="5" t="str">
         <f>Оригинал!D14</f>
-        <v>отп</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4169,10 +4196,10 @@
       </c>
       <c r="C55" s="5" t="str">
         <f>Оригинал!D15</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4182,7 +4209,7 @@
       </c>
       <c r="C56" s="5" t="str">
         <f>Оригинал!D16</f>
-        <v>9-24</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -4195,7 +4222,7 @@
       </c>
       <c r="C57" s="5" t="str">
         <f>Оригинал!D17</f>
-        <v>9-11</v>
+        <v>9-10</v>
       </c>
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4208,7 +4235,7 @@
       </c>
       <c r="C58" s="5" t="str">
         <f>Оригинал!D18</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4237,7 +4264,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4247,10 +4274,10 @@
       </c>
       <c r="C61" s="5" t="str">
         <f>Оригинал!D20</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4260,7 +4287,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f>Оригинал!D21</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4338,10 +4365,10 @@
       </c>
       <c r="C68" s="5" t="str">
         <f>Оригинал!E7</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -4351,7 +4378,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f>Оригинал!E8</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4367,7 +4394,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -4377,7 +4404,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f>Оригинал!E10</f>
-        <v>отп</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4390,10 +4417,10 @@
       </c>
       <c r="C72" s="5" t="str">
         <f>Оригинал!E11</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4</v>
       </c>
@@ -4403,7 +4430,7 @@
       </c>
       <c r="C73" s="5" t="str">
         <f>Оригинал!E12</f>
-        <v>9-24</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4419,7 +4446,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -4429,10 +4456,10 @@
       </c>
       <c r="C75" s="5" t="str">
         <f>Оригинал!E14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -4442,7 +4469,7 @@
       </c>
       <c r="C76" s="5" t="str">
         <f>Оригинал!E15</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4510,7 +4537,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -4520,10 +4547,10 @@
       </c>
       <c r="C82" s="5" t="str">
         <f>Оригинал!E20</f>
-        <v>0-11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -4533,7 +4560,7 @@
       </c>
       <c r="C83" s="5" t="str">
         <f>Оригинал!E21</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4588,7 +4615,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5</v>
       </c>
@@ -4598,10 +4625,10 @@
       </c>
       <c r="C88" s="5" t="str">
         <f>Оригинал!F6</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>5</v>
       </c>
@@ -4611,10 +4638,10 @@
       </c>
       <c r="C89" s="5" t="str">
         <f>Оригинал!F7</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5</v>
       </c>
@@ -4624,7 +4651,7 @@
       </c>
       <c r="C90" s="5" t="str">
         <f>Оригинал!F8</f>
-        <v>9-24</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4640,7 +4667,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>5</v>
       </c>
@@ -4650,7 +4677,7 @@
       </c>
       <c r="C92" s="5" t="str">
         <f>Оригинал!F10</f>
-        <v>отп</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4663,7 +4690,7 @@
       </c>
       <c r="C93" s="5" t="str">
         <f>Оригинал!F11</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4679,7 +4706,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>5</v>
       </c>
@@ -4689,7 +4716,7 @@
       </c>
       <c r="C95" s="5" t="str">
         <f>Оригинал!F13</f>
-        <v>0-10</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4702,10 +4729,10 @@
       </c>
       <c r="C96" s="5" t="str">
         <f>Оригинал!F14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5</v>
       </c>
@@ -4715,10 +4742,10 @@
       </c>
       <c r="C97" s="5" t="str">
         <f>Оригинал!F15</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>5</v>
       </c>
@@ -4728,7 +4755,7 @@
       </c>
       <c r="C98" s="5" t="str">
         <f>Оригинал!F16</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4744,7 +4771,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>5</v>
       </c>
@@ -4754,7 +4781,7 @@
       </c>
       <c r="C100" s="5" t="str">
         <f>Оригинал!F18</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4822,7 +4849,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -4832,10 +4859,10 @@
       </c>
       <c r="C106" s="5" t="str">
         <f>Оригинал!F23</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>6</v>
       </c>
@@ -4845,7 +4872,7 @@
       </c>
       <c r="C107" s="5" t="str">
         <f>Оригинал!G4</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4871,10 +4898,10 @@
       </c>
       <c r="C109" s="5" t="str">
         <f>Оригинал!G6</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>6</v>
       </c>
@@ -4884,7 +4911,7 @@
       </c>
       <c r="C110" s="5" t="str">
         <f>Оригинал!G7</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4900,7 +4927,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>6</v>
       </c>
@@ -4910,10 +4937,10 @@
       </c>
       <c r="C112" s="5" t="str">
         <f>Оригинал!G9</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>6</v>
       </c>
@@ -4923,10 +4950,10 @@
       </c>
       <c r="C113" s="5" t="str">
         <f>Оригинал!G10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>6</v>
       </c>
@@ -4936,7 +4963,7 @@
       </c>
       <c r="C114" s="5" t="str">
         <f>Оригинал!G11</f>
-        <v>отп</v>
+        <v>9-18</v>
       </c>
     </row>
     <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -4952,7 +4979,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>6</v>
       </c>
@@ -4962,10 +4989,10 @@
       </c>
       <c r="C116" s="5" t="str">
         <f>Оригинал!G13</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>6</v>
       </c>
@@ -4975,7 +5002,7 @@
       </c>
       <c r="C117" s="5" t="str">
         <f>Оригинал!G14</f>
-        <v>отп</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5001,10 +5028,10 @@
       </c>
       <c r="C119" s="5" t="str">
         <f>Оригинал!G16</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>6</v>
       </c>
@@ -5014,10 +5041,10 @@
       </c>
       <c r="C120" s="5" t="str">
         <f>Оригинал!G17</f>
-        <v>9-11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>6</v>
       </c>
@@ -5027,7 +5054,7 @@
       </c>
       <c r="C121" s="5" t="str">
         <f>Оригинал!G18</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5095,7 +5122,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>6</v>
       </c>
@@ -5105,10 +5132,10 @@
       </c>
       <c r="C127" s="5" t="str">
         <f>Оригинал!G23</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>7</v>
       </c>
@@ -5118,10 +5145,10 @@
       </c>
       <c r="C128" s="5" t="str">
         <f>Оригинал!H4</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>7</v>
       </c>
@@ -5131,10 +5158,10 @@
       </c>
       <c r="C129" s="5" t="str">
         <f>Оригинал!H5</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>7</v>
       </c>
@@ -5144,10 +5171,10 @@
       </c>
       <c r="C130" s="5" t="str">
         <f>Оригинал!H6</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>7</v>
       </c>
@@ -5157,10 +5184,10 @@
       </c>
       <c r="C131" s="5" t="str">
         <f>Оригинал!H7</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>7</v>
       </c>
@@ -5170,10 +5197,10 @@
       </c>
       <c r="C132" s="5" t="str">
         <f>Оригинал!H8</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>7</v>
       </c>
@@ -5183,7 +5210,7 @@
       </c>
       <c r="C133" s="5" t="str">
         <f>Оригинал!H9</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5196,10 +5223,10 @@
       </c>
       <c r="C134" s="5" t="str">
         <f>Оригинал!H10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>7</v>
       </c>
@@ -5209,7 +5236,7 @@
       </c>
       <c r="C135" s="5" t="str">
         <f>Оригинал!H11</f>
-        <v>отп</v>
+        <v>9-16</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -5222,10 +5249,10 @@
       </c>
       <c r="C136" s="5" t="str">
         <f>Оригинал!H12</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>7</v>
       </c>
@@ -5235,7 +5262,7 @@
       </c>
       <c r="C137" s="5" t="str">
         <f>Оригинал!H13</f>
-        <v>вых</v>
+        <v>9-13</v>
       </c>
     </row>
     <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5248,10 +5275,10 @@
       </c>
       <c r="C138" s="5" t="str">
         <f>Оригинал!H14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>7</v>
       </c>
@@ -5261,10 +5288,10 @@
       </c>
       <c r="C139" s="5" t="str">
         <f>Оригинал!H15</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>7</v>
       </c>
@@ -5274,10 +5301,10 @@
       </c>
       <c r="C140" s="5" t="str">
         <f>Оригинал!H16</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>7</v>
       </c>
@@ -5287,7 +5314,7 @@
       </c>
       <c r="C141" s="5" t="str">
         <f>Оригинал!H17</f>
-        <v>9-11</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5355,7 +5382,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>7</v>
       </c>
@@ -5365,7 +5392,7 @@
       </c>
       <c r="C147" s="5" t="str">
         <f>Оригинал!H22</f>
-        <v>вых</v>
+        <v>0-11</v>
       </c>
     </row>
     <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5394,7 +5421,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>8</v>
       </c>
@@ -5404,10 +5431,10 @@
       </c>
       <c r="C150" s="5" t="str">
         <f>Оригинал!I5</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>8</v>
       </c>
@@ -5417,7 +5444,7 @@
       </c>
       <c r="C151" s="5" t="str">
         <f>Оригинал!I6</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5443,7 +5470,7 @@
       </c>
       <c r="C153" s="5" t="str">
         <f>Оригинал!I8</f>
-        <v>9-24</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -5469,7 +5496,7 @@
       </c>
       <c r="C155" s="5" t="str">
         <f>Оригинал!I10</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5482,10 +5509,10 @@
       </c>
       <c r="C156" s="5" t="str">
         <f>Оригинал!I11</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>8</v>
       </c>
@@ -5495,7 +5522,7 @@
       </c>
       <c r="C157" s="5" t="str">
         <f>Оригинал!I12</f>
-        <v>вых</v>
+        <v>18-22</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -5508,7 +5535,7 @@
       </c>
       <c r="C158" s="5" t="str">
         <f>Оригинал!I13</f>
-        <v>0-10</v>
+        <v>18-22</v>
       </c>
     </row>
     <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5521,7 +5548,7 @@
       </c>
       <c r="C159" s="5" t="str">
         <f>Оригинал!I14</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -5534,10 +5561,10 @@
       </c>
       <c r="C160" s="5" t="str">
         <f>Оригинал!I15</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>8</v>
       </c>
@@ -5547,10 +5574,10 @@
       </c>
       <c r="C161" s="5" t="str">
         <f>Оригинал!I16</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>8</v>
       </c>
@@ -5560,7 +5587,7 @@
       </c>
       <c r="C162" s="5" t="str">
         <f>Оригинал!I17</f>
-        <v>9-11</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5628,7 +5655,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>8</v>
       </c>
@@ -5638,7 +5665,7 @@
       </c>
       <c r="C168" s="5" t="str">
         <f>Оригинал!I22</f>
-        <v>0-11</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5667,7 +5694,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>9</v>
       </c>
@@ -5677,10 +5704,10 @@
       </c>
       <c r="C171" s="5" t="str">
         <f>Оригинал!J5</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>9</v>
       </c>
@@ -5690,10 +5717,10 @@
       </c>
       <c r="C172" s="5" t="str">
         <f>Оригинал!J6</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>9</v>
       </c>
@@ -5703,10 +5730,10 @@
       </c>
       <c r="C173" s="5" t="str">
         <f>Оригинал!J7</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>9</v>
       </c>
@@ -5716,7 +5743,7 @@
       </c>
       <c r="C174" s="5" t="str">
         <f>Оригинал!J8</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -5732,7 +5759,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>9</v>
       </c>
@@ -5742,7 +5769,7 @@
       </c>
       <c r="C176" s="5" t="str">
         <f>Оригинал!J10</f>
-        <v>отп</v>
+        <v>11-20</v>
       </c>
     </row>
     <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5755,10 +5782,10 @@
       </c>
       <c r="C177" s="5" t="str">
         <f>Оригинал!J11</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>9</v>
       </c>
@@ -5768,10 +5795,10 @@
       </c>
       <c r="C178" s="5" t="str">
         <f>Оригинал!J12</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>9</v>
       </c>
@@ -5781,10 +5808,10 @@
       </c>
       <c r="C179" s="5" t="str">
         <f>Оригинал!J13</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>9</v>
       </c>
@@ -5794,10 +5821,10 @@
       </c>
       <c r="C180" s="5" t="str">
         <f>Оригинал!J14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>9</v>
       </c>
@@ -5807,10 +5834,10 @@
       </c>
       <c r="C181" s="5" t="str">
         <f>Оригинал!J15</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>9</v>
       </c>
@@ -5820,10 +5847,10 @@
       </c>
       <c r="C182" s="5" t="str">
         <f>Оригинал!J16</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>9</v>
       </c>
@@ -5833,7 +5860,7 @@
       </c>
       <c r="C183" s="5" t="str">
         <f>Оригинал!J17</f>
-        <v>9-11</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5844,9 +5871,9 @@
         <f t="shared" si="4"/>
         <v>Эндо А.Е.(0,5 ст.)</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="5" t="str">
         <f>Оригинал!J18</f>
-        <v>0</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5875,7 +5902,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>9</v>
       </c>
@@ -5885,10 +5912,10 @@
       </c>
       <c r="C187" s="5" t="str">
         <f>Оригинал!J20</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>9</v>
       </c>
@@ -5898,7 +5925,7 @@
       </c>
       <c r="C188" s="5" t="str">
         <f>Оригинал!J21</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5922,9 +5949,9 @@
         <f t="shared" si="4"/>
         <v>Петрухин М.В. (0,5 ст.)</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="5" t="str">
         <f>Оригинал!J23</f>
-        <v>0</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -5950,7 +5977,7 @@
       </c>
       <c r="C192" s="5" t="str">
         <f>Оригинал!K5</f>
-        <v>9-10</v>
+        <v>9-13</v>
       </c>
     </row>
     <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -5976,10 +6003,10 @@
       </c>
       <c r="C194" s="5" t="str">
         <f>Оригинал!K7</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>10</v>
       </c>
@@ -5989,7 +6016,7 @@
       </c>
       <c r="C195" s="5" t="str">
         <f>Оригинал!K8</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -6005,7 +6032,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>10</v>
       </c>
@@ -6015,10 +6042,10 @@
       </c>
       <c r="C197" s="5" t="str">
         <f>Оригинал!K10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>11-20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>10</v>
       </c>
@@ -6028,7 +6055,7 @@
       </c>
       <c r="C198" s="5" t="str">
         <f>Оригинал!K11</f>
-        <v>отп</v>
+        <v>18-22</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -6041,7 +6068,7 @@
       </c>
       <c r="C199" s="5" t="str">
         <f>Оригинал!K12</f>
-        <v>9-24</v>
+        <v>18-22</v>
       </c>
     </row>
     <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6057,7 +6084,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>10</v>
       </c>
@@ -6067,10 +6094,10 @@
       </c>
       <c r="C201" s="5" t="str">
         <f>Оригинал!K14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>10</v>
       </c>
@@ -6080,7 +6107,7 @@
       </c>
       <c r="C202" s="5" t="str">
         <f>Оригинал!K15</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6096,7 +6123,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>10</v>
       </c>
@@ -6106,7 +6133,7 @@
       </c>
       <c r="C204" s="5" t="str">
         <f>Оригинал!K17</f>
-        <v>9-11</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6148,7 +6175,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>10</v>
       </c>
@@ -6158,10 +6185,10 @@
       </c>
       <c r="C208" s="5" t="str">
         <f>Оригинал!K20</f>
-        <v>0-11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>10</v>
       </c>
@@ -6171,10 +6198,10 @@
       </c>
       <c r="C209" s="5" t="str">
         <f>Оригинал!K21</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>10</v>
       </c>
@@ -6184,7 +6211,7 @@
       </c>
       <c r="C210" s="5" t="str">
         <f>Оригинал!K22</f>
-        <v>вых</v>
+        <v>7-9</v>
       </c>
     </row>
     <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6200,7 +6227,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>11</v>
       </c>
@@ -6210,10 +6237,10 @@
       </c>
       <c r="C212" s="5" t="str">
         <f>Оригинал!L4</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>11</v>
       </c>
@@ -6223,10 +6250,10 @@
       </c>
       <c r="C213" s="5" t="str">
         <f>Оригинал!L5</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>11</v>
       </c>
@@ -6236,10 +6263,10 @@
       </c>
       <c r="C214" s="5" t="str">
         <f>Оригинал!L6</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>11</v>
       </c>
@@ -6249,10 +6276,10 @@
       </c>
       <c r="C215" s="5" t="str">
         <f>Оригинал!L7</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>11</v>
       </c>
@@ -6262,10 +6289,10 @@
       </c>
       <c r="C216" s="5" t="str">
         <f>Оригинал!L8</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>11</v>
       </c>
@@ -6275,10 +6302,10 @@
       </c>
       <c r="C217" s="5" t="str">
         <f>Оригинал!L9</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>11</v>
       </c>
@@ -6288,7 +6315,7 @@
       </c>
       <c r="C218" s="5" t="str">
         <f>Оригинал!L10</f>
-        <v>отп</v>
+        <v>11-20</v>
       </c>
     </row>
     <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6301,7 +6328,7 @@
       </c>
       <c r="C219" s="5" t="str">
         <f>Оригинал!L11</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6317,7 +6344,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>11</v>
       </c>
@@ -6327,7 +6354,7 @@
       </c>
       <c r="C221" s="5" t="str">
         <f>Оригинал!L13</f>
-        <v>0-10</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6340,10 +6367,10 @@
       </c>
       <c r="C222" s="5" t="str">
         <f>Оригинал!L14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>11</v>
       </c>
@@ -6353,10 +6380,10 @@
       </c>
       <c r="C223" s="5" t="str">
         <f>Оригинал!L15</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>11</v>
       </c>
@@ -6366,7 +6393,7 @@
       </c>
       <c r="C224" s="5" t="str">
         <f>Оригинал!L16</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6379,10 +6406,10 @@
       </c>
       <c r="C225" s="5" t="str">
         <f>Оригинал!L17</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>11</v>
       </c>
@@ -6392,7 +6419,7 @@
       </c>
       <c r="C226" s="5" t="str">
         <f>Оригинал!L18</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6460,7 +6487,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>11</v>
       </c>
@@ -6470,10 +6497,10 @@
       </c>
       <c r="C232" s="5" t="str">
         <f>Оригинал!L23</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>12</v>
       </c>
@@ -6483,10 +6510,10 @@
       </c>
       <c r="C233" s="5" t="str">
         <f>Оригинал!M4</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>12</v>
       </c>
@@ -6496,7 +6523,7 @@
       </c>
       <c r="C234" s="5" t="str">
         <f>Оригинал!M5</f>
-        <v>вых</v>
+        <v>9-16</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -6509,10 +6536,10 @@
       </c>
       <c r="C235" s="5" t="str">
         <f>Оригинал!M6</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>12</v>
       </c>
@@ -6522,7 +6549,7 @@
       </c>
       <c r="C236" s="5" t="str">
         <f>Оригинал!M7</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6538,7 +6565,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>12</v>
       </c>
@@ -6548,10 +6575,10 @@
       </c>
       <c r="C238" s="5" t="str">
         <f>Оригинал!M9</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>12</v>
       </c>
@@ -6561,10 +6588,10 @@
       </c>
       <c r="C239" s="5" t="str">
         <f>Оригинал!M10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11-20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>12</v>
       </c>
@@ -6574,7 +6601,7 @@
       </c>
       <c r="C240" s="5" t="str">
         <f>Оригинал!M11</f>
-        <v>9-16</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6603,7 +6630,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>12</v>
       </c>
@@ -6613,7 +6640,7 @@
       </c>
       <c r="C243" s="5" t="str">
         <f>Оригинал!M14</f>
-        <v>отп</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6639,7 +6666,7 @@
       </c>
       <c r="C245" s="5" t="str">
         <f>Оригинал!M16</f>
-        <v>9-24</v>
+        <v>0-7</v>
       </c>
     </row>
     <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6652,10 +6679,10 @@
       </c>
       <c r="C246" s="5" t="str">
         <f>Оригинал!M17</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>12</v>
       </c>
@@ -6665,7 +6692,7 @@
       </c>
       <c r="C247" s="5" t="str">
         <f>Оригинал!M18</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6694,7 +6721,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>12</v>
       </c>
@@ -6704,10 +6731,10 @@
       </c>
       <c r="C250" s="5" t="str">
         <f>Оригинал!M20</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>7-9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>12</v>
       </c>
@@ -6717,7 +6744,7 @@
       </c>
       <c r="C251" s="5" t="str">
         <f>Оригинал!M21</f>
-        <v>вых</v>
+        <v>7-9</v>
       </c>
     </row>
     <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6733,7 +6760,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>12</v>
       </c>
@@ -6743,10 +6770,10 @@
       </c>
       <c r="C253" s="5" t="str">
         <f>Оригинал!M23</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>13</v>
       </c>
@@ -6755,10 +6782,10 @@
       </c>
       <c r="C254" s="5" t="str">
         <f>Оригинал!N4</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>13</v>
       </c>
@@ -6767,7 +6794,7 @@
       </c>
       <c r="C255" s="5" t="str">
         <f>Оригинал!N5</f>
-        <v>9-24</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6782,7 +6809,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>13</v>
       </c>
@@ -6791,10 +6818,10 @@
       </c>
       <c r="C257" s="5" t="str">
         <f>Оригинал!N7</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>13</v>
       </c>
@@ -6803,10 +6830,10 @@
       </c>
       <c r="C258" s="5" t="str">
         <f>Оригинал!N8</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>13</v>
       </c>
@@ -6815,10 +6842,10 @@
       </c>
       <c r="C259" s="5" t="str">
         <f>Оригинал!N9</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>13</v>
       </c>
@@ -6827,10 +6854,10 @@
       </c>
       <c r="C260" s="5" t="str">
         <f>Оригинал!N10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>11-20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>13</v>
       </c>
@@ -6839,10 +6866,10 @@
       </c>
       <c r="C261" s="5" t="str">
         <f>Оригинал!N11</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>13</v>
       </c>
@@ -6851,10 +6878,10 @@
       </c>
       <c r="C262" s="5" t="str">
         <f>Оригинал!N12</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>13</v>
       </c>
@@ -6863,7 +6890,7 @@
       </c>
       <c r="C263" s="5" t="str">
         <f>Оригинал!N13</f>
-        <v>вых</v>
+        <v>9-17</v>
       </c>
     </row>
     <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6875,10 +6902,10 @@
       </c>
       <c r="C264" s="5" t="str">
         <f>Оригинал!N14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>13</v>
       </c>
@@ -6887,7 +6914,7 @@
       </c>
       <c r="C265" s="5" t="str">
         <f>Оригинал!N15</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6902,7 +6929,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>13</v>
       </c>
@@ -6911,7 +6938,7 @@
       </c>
       <c r="C267" s="5" t="str">
         <f>Оригинал!N17</f>
-        <v>9-11</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6950,7 +6977,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>13</v>
       </c>
@@ -6959,10 +6986,10 @@
       </c>
       <c r="C271" s="5" t="str">
         <f>Оригинал!N20</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>13</v>
       </c>
@@ -6971,10 +6998,10 @@
       </c>
       <c r="C272" s="5" t="str">
         <f>Оригинал!N21</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>13</v>
       </c>
@@ -6983,7 +7010,7 @@
       </c>
       <c r="C273" s="5" t="str">
         <f>Оригинал!N22</f>
-        <v>вых</v>
+        <v>0-11</v>
       </c>
     </row>
     <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -6998,7 +7025,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>14</v>
       </c>
@@ -7007,7 +7034,7 @@
       </c>
       <c r="C275" s="5" t="str">
         <f>Оригинал!O4</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7022,7 +7049,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>14</v>
       </c>
@@ -7031,7 +7058,7 @@
       </c>
       <c r="C277" s="5" t="str">
         <f>Оригинал!O6</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7055,10 +7082,10 @@
       </c>
       <c r="C279" s="5" t="str">
         <f>Оригинал!O8</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0-7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>14</v>
       </c>
@@ -7067,7 +7094,7 @@
       </c>
       <c r="C280" s="5" t="str">
         <f>Оригинал!O9</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7079,10 +7106,10 @@
       </c>
       <c r="C281" s="5" t="str">
         <f>Оригинал!O10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>14</v>
       </c>
@@ -7091,10 +7118,10 @@
       </c>
       <c r="C282" s="5" t="str">
         <f>Оригинал!O11</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>14</v>
       </c>
@@ -7103,7 +7130,7 @@
       </c>
       <c r="C283" s="5" t="str">
         <f>Оригинал!O12</f>
-        <v>вых</v>
+        <v>9-17</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -7115,7 +7142,7 @@
       </c>
       <c r="C284" s="5" t="str">
         <f>Оригинал!O13</f>
-        <v>0-10</v>
+        <v>9-13</v>
       </c>
     </row>
     <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7127,7 +7154,7 @@
       </c>
       <c r="C285" s="5" t="str">
         <f>Оригинал!O14</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -7139,10 +7166,10 @@
       </c>
       <c r="C286" s="5" t="str">
         <f>Оригинал!O15</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>14</v>
       </c>
@@ -7151,10 +7178,10 @@
       </c>
       <c r="C287" s="5" t="str">
         <f>Оригинал!O16</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>14</v>
       </c>
@@ -7163,10 +7190,10 @@
       </c>
       <c r="C288" s="5" t="str">
         <f>Оригинал!O17</f>
-        <v>9-11</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>14</v>
       </c>
@@ -7175,7 +7202,7 @@
       </c>
       <c r="C289" s="5" t="str">
         <f>Оригинал!O18</f>
-        <v>вых</v>
+        <v>7-9</v>
       </c>
     </row>
     <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7226,7 +7253,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>14</v>
       </c>
@@ -7235,10 +7262,10 @@
       </c>
       <c r="C294" s="5" t="str">
         <f>Оригинал!O22</f>
-        <v>0-11</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>14</v>
       </c>
@@ -7247,7 +7274,7 @@
       </c>
       <c r="C295" s="5" t="str">
         <f>Оригинал!O23</f>
-        <v>вых</v>
+        <v>7-9</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -7262,7 +7289,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>15</v>
       </c>
@@ -7271,10 +7298,10 @@
       </c>
       <c r="C297" s="5" t="str">
         <f>Оригинал!P5</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>15</v>
       </c>
@@ -7283,10 +7310,10 @@
       </c>
       <c r="C298" s="5" t="str">
         <f>Оригинал!P6</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>15</v>
       </c>
@@ -7295,10 +7322,10 @@
       </c>
       <c r="C299" s="5" t="str">
         <f>Оригинал!P7</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>15</v>
       </c>
@@ -7307,7 +7334,7 @@
       </c>
       <c r="C300" s="5" t="str">
         <f>Оригинал!P8</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -7331,10 +7358,10 @@
       </c>
       <c r="C302" s="5" t="str">
         <f>Оригинал!P10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>15</v>
       </c>
@@ -7343,10 +7370,10 @@
       </c>
       <c r="C303" s="5" t="str">
         <f>Оригинал!P11</f>
-        <v>18-22</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>15</v>
       </c>
@@ -7355,10 +7382,10 @@
       </c>
       <c r="C304" s="5" t="str">
         <f>Оригинал!P12</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>15</v>
       </c>
@@ -7367,10 +7394,10 @@
       </c>
       <c r="C305" s="5" t="str">
         <f>Оригинал!P13</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>15</v>
       </c>
@@ -7379,10 +7406,10 @@
       </c>
       <c r="C306" s="5" t="str">
         <f>Оригинал!P14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>15</v>
       </c>
@@ -7391,10 +7418,10 @@
       </c>
       <c r="C307" s="5" t="str">
         <f>Оригинал!P15</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>15</v>
       </c>
@@ -7403,10 +7430,10 @@
       </c>
       <c r="C308" s="5" t="str">
         <f>Оригинал!P16</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>15</v>
       </c>
@@ -7415,7 +7442,7 @@
       </c>
       <c r="C309" s="5" t="str">
         <f>Оригинал!P17</f>
-        <v>9-11</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7454,7 +7481,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>15</v>
       </c>
@@ -7463,10 +7490,10 @@
       </c>
       <c r="C313" s="5" t="str">
         <f>Оригинал!P20</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>15</v>
       </c>
@@ -7475,7 +7502,7 @@
       </c>
       <c r="C314" s="5" t="str">
         <f>Оригинал!P21</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7511,7 +7538,7 @@
       </c>
       <c r="C317" s="5" t="str">
         <f>Оригинал!Q4</f>
-        <v>9-13</v>
+        <v>9-16</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -7547,10 +7574,10 @@
       </c>
       <c r="C320" s="5" t="str">
         <f>Оригинал!Q7</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>16</v>
       </c>
@@ -7559,7 +7586,7 @@
       </c>
       <c r="C321" s="5" t="str">
         <f>Оригинал!Q8</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -7574,7 +7601,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>16</v>
       </c>
@@ -7583,10 +7610,10 @@
       </c>
       <c r="C323" s="5" t="str">
         <f>Оригинал!Q10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>16</v>
       </c>
@@ -7595,7 +7622,7 @@
       </c>
       <c r="C324" s="5" t="str">
         <f>Оригинал!Q11</f>
-        <v>18-22</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -7607,10 +7634,10 @@
       </c>
       <c r="C325" s="5" t="str">
         <f>Оригинал!Q12</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>16</v>
       </c>
@@ -7619,10 +7646,10 @@
       </c>
       <c r="C326" s="5" t="str">
         <f>Оригинал!Q13</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>16</v>
       </c>
@@ -7631,10 +7658,10 @@
       </c>
       <c r="C327" s="5" t="str">
         <f>Оригинал!Q14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>16</v>
       </c>
@@ -7643,7 +7670,7 @@
       </c>
       <c r="C328" s="5" t="str">
         <f>Оригинал!Q15</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7658,7 +7685,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>16</v>
       </c>
@@ -7667,7 +7694,7 @@
       </c>
       <c r="C330" s="5" t="str">
         <f>Оригинал!Q17</f>
-        <v>9-11</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7706,7 +7733,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>16</v>
       </c>
@@ -7715,10 +7742,10 @@
       </c>
       <c r="C334" s="5" t="str">
         <f>Оригинал!Q20</f>
-        <v>0-11</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>16</v>
       </c>
@@ -7727,7 +7754,7 @@
       </c>
       <c r="C335" s="5" t="str">
         <f>Оригинал!Q21</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7766,7 +7793,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>17</v>
       </c>
@@ -7775,10 +7802,10 @@
       </c>
       <c r="C339" s="5" t="str">
         <f>Оригинал!R5</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>17</v>
       </c>
@@ -7787,10 +7814,10 @@
       </c>
       <c r="C340" s="5" t="str">
         <f>Оригинал!R6</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>17</v>
       </c>
@@ -7799,10 +7826,10 @@
       </c>
       <c r="C341" s="5" t="str">
         <f>Оригинал!R7</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>17</v>
       </c>
@@ -7811,7 +7838,7 @@
       </c>
       <c r="C342" s="5" t="str">
         <f>Оригинал!R8</f>
-        <v>9-24</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -7826,7 +7853,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>17</v>
       </c>
@@ -7835,10 +7862,10 @@
       </c>
       <c r="C344" s="5" t="str">
         <f>Оригинал!R10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>17</v>
       </c>
@@ -7847,10 +7874,10 @@
       </c>
       <c r="C345" s="5" t="str">
         <f>Оригинал!R11</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>17</v>
       </c>
@@ -7859,10 +7886,10 @@
       </c>
       <c r="C346" s="5" t="str">
         <f>Оригинал!R12</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>17</v>
       </c>
@@ -7871,7 +7898,7 @@
       </c>
       <c r="C347" s="5" t="str">
         <f>Оригинал!R13</f>
-        <v>0-10</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7883,10 +7910,10 @@
       </c>
       <c r="C348" s="5" t="str">
         <f>Оригинал!R14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>17</v>
       </c>
@@ -7895,10 +7922,10 @@
       </c>
       <c r="C349" s="5" t="str">
         <f>Оригинал!R15</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>17</v>
       </c>
@@ -7907,10 +7934,10 @@
       </c>
       <c r="C350" s="5" t="str">
         <f>Оригинал!R16</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>17</v>
       </c>
@@ -7919,10 +7946,10 @@
       </c>
       <c r="C351" s="5" t="str">
         <f>Оригинал!R17</f>
-        <v>9-11</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>17</v>
       </c>
@@ -7931,7 +7958,7 @@
       </c>
       <c r="C352" s="5" t="str">
         <f>Оригинал!R18</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -7989,12 +8016,12 @@
       <c r="B357" t="s">
         <v>42</v>
       </c>
-      <c r="C357" s="5">
+      <c r="C357" s="5" t="str">
         <f>Оригинал!R22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>17</v>
       </c>
@@ -8003,10 +8030,10 @@
       </c>
       <c r="C358" s="5" t="str">
         <f>Оригинал!R23</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>18</v>
       </c>
@@ -8015,7 +8042,7 @@
       </c>
       <c r="C359" s="5" t="str">
         <f>Оригинал!S4</f>
-        <v>вых</v>
+        <v>9-13</v>
       </c>
     </row>
     <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8039,10 +8066,10 @@
       </c>
       <c r="C361" s="5" t="str">
         <f>Оригинал!S6</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>18</v>
       </c>
@@ -8051,7 +8078,7 @@
       </c>
       <c r="C362" s="5" t="str">
         <f>Оригинал!S7</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8066,7 +8093,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>18</v>
       </c>
@@ -8075,10 +8102,10 @@
       </c>
       <c r="C364" s="5" t="str">
         <f>Оригинал!S9</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>18</v>
       </c>
@@ -8087,10 +8114,10 @@
       </c>
       <c r="C365" s="5" t="str">
         <f>Оригинал!S10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>18</v>
       </c>
@@ -8099,7 +8126,7 @@
       </c>
       <c r="C366" s="5" t="str">
         <f>Оригинал!S11</f>
-        <v>вых</v>
+        <v>18-20</v>
       </c>
     </row>
     <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8126,7 +8153,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>18</v>
       </c>
@@ -8135,7 +8162,7 @@
       </c>
       <c r="C369" s="5" t="str">
         <f>Оригинал!S14</f>
-        <v>отп</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8159,7 +8186,7 @@
       </c>
       <c r="C371" s="5" t="str">
         <f>Оригинал!S16</f>
-        <v>9-24</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8171,10 +8198,10 @@
       </c>
       <c r="C372" s="5" t="str">
         <f>Оригинал!S17</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>18</v>
       </c>
@@ -8183,7 +8210,7 @@
       </c>
       <c r="C373" s="5" t="str">
         <f>Оригинал!S18</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8246,7 +8273,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>18</v>
       </c>
@@ -8255,10 +8282,10 @@
       </c>
       <c r="C379" s="5" t="str">
         <f>Оригинал!S23</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>19</v>
       </c>
@@ -8267,10 +8294,10 @@
       </c>
       <c r="C380" s="5" t="str">
         <f>Оригинал!T4</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>19</v>
       </c>
@@ -8279,10 +8306,10 @@
       </c>
       <c r="C381" s="5" t="str">
         <f>Оригинал!T5</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>19</v>
       </c>
@@ -8291,10 +8318,10 @@
       </c>
       <c r="C382" s="5" t="str">
         <f>Оригинал!T6</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>19</v>
       </c>
@@ -8303,7 +8330,7 @@
       </c>
       <c r="C383" s="5" t="str">
         <f>Оригинал!T7</f>
-        <v>9-24</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8315,10 +8342,10 @@
       </c>
       <c r="C384" s="5" t="str">
         <f>Оригинал!T8</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>19</v>
       </c>
@@ -8327,10 +8354,10 @@
       </c>
       <c r="C385" s="5" t="str">
         <f>Оригинал!T9</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>19</v>
       </c>
@@ -8339,10 +8366,10 @@
       </c>
       <c r="C386" s="5" t="str">
         <f>Оригинал!T10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>19</v>
       </c>
@@ -8351,10 +8378,10 @@
       </c>
       <c r="C387" s="5" t="str">
         <f>Оригинал!T11</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>19</v>
       </c>
@@ -8363,7 +8390,7 @@
       </c>
       <c r="C388" s="5" t="str">
         <f>Оригинал!T12</f>
-        <v>9-16</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8387,10 +8414,10 @@
       </c>
       <c r="C390" s="5" t="str">
         <f>Оригинал!T14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>19</v>
       </c>
@@ -8399,10 +8426,10 @@
       </c>
       <c r="C391" s="5" t="str">
         <f>Оригинал!T15</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>19</v>
       </c>
@@ -8411,7 +8438,7 @@
       </c>
       <c r="C392" s="5" t="str">
         <f>Оригинал!T16</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8423,7 +8450,7 @@
       </c>
       <c r="C393" s="5" t="str">
         <f>Оригинал!T17</f>
-        <v>вых</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8469,9 +8496,9 @@
       <c r="B397" t="s">
         <v>40</v>
       </c>
-      <c r="C397" s="5">
+      <c r="C397" s="5" t="str">
         <f>Оригинал!T20</f>
-        <v>0</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8481,12 +8508,12 @@
       <c r="B398" t="s">
         <v>41</v>
       </c>
-      <c r="C398" s="5">
+      <c r="C398" s="5" t="str">
         <f>Оригинал!T21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>19</v>
       </c>
@@ -8495,7 +8522,7 @@
       </c>
       <c r="C399" s="5" t="str">
         <f>Оригинал!T22</f>
-        <v>вых</v>
+        <v>0-11</v>
       </c>
     </row>
     <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8507,10 +8534,10 @@
       </c>
       <c r="C400" s="5" t="str">
         <f>Оригинал!T23</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>20</v>
       </c>
@@ -8519,7 +8546,7 @@
       </c>
       <c r="C401" s="5" t="str">
         <f>Оригинал!U4</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8534,7 +8561,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>20</v>
       </c>
@@ -8543,7 +8570,7 @@
       </c>
       <c r="C403" s="5" t="str">
         <f>Оригинал!U6</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8558,7 +8585,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>20</v>
       </c>
@@ -8567,10 +8594,10 @@
       </c>
       <c r="C405" s="5" t="str">
         <f>Оригинал!U8</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>20</v>
       </c>
@@ -8579,10 +8606,10 @@
       </c>
       <c r="C406" s="5" t="str">
         <f>Оригинал!U9</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>20</v>
       </c>
@@ -8591,10 +8618,10 @@
       </c>
       <c r="C407" s="5" t="str">
         <f>Оригинал!U10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>20</v>
       </c>
@@ -8603,10 +8630,10 @@
       </c>
       <c r="C408" s="5" t="str">
         <f>Оригинал!U11</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-18</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>20</v>
       </c>
@@ -8615,7 +8642,7 @@
       </c>
       <c r="C409" s="5" t="str">
         <f>Оригинал!U12</f>
-        <v>18-22</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -8639,10 +8666,10 @@
       </c>
       <c r="C411" s="5" t="str">
         <f>Оригинал!U14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>20</v>
       </c>
@@ -8651,10 +8678,10 @@
       </c>
       <c r="C412" s="5" t="str">
         <f>Оригинал!U15</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>20</v>
       </c>
@@ -8663,10 +8690,10 @@
       </c>
       <c r="C413" s="5" t="str">
         <f>Оригинал!U16</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>20</v>
       </c>
@@ -8675,10 +8702,10 @@
       </c>
       <c r="C414" s="5" t="str">
         <f>Оригинал!U17</f>
-        <v>9-11</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>20</v>
       </c>
@@ -8687,7 +8714,7 @@
       </c>
       <c r="C415" s="5" t="str">
         <f>Оригинал!U18</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8738,7 +8765,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>20</v>
       </c>
@@ -8747,7 +8774,7 @@
       </c>
       <c r="C420" s="5" t="str">
         <f>Оригинал!U22</f>
-        <v>0-11</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8759,10 +8786,10 @@
       </c>
       <c r="C421" s="5" t="str">
         <f>Оригинал!U23</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>21</v>
       </c>
@@ -8771,7 +8798,7 @@
       </c>
       <c r="C422" s="5" t="str">
         <f>Оригинал!V4</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8786,7 +8813,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>21</v>
       </c>
@@ -8795,7 +8822,7 @@
       </c>
       <c r="C424" s="5" t="str">
         <f>Оригинал!V6</f>
-        <v>9-24</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8807,10 +8834,10 @@
       </c>
       <c r="C425" s="5" t="str">
         <f>Оригинал!V7</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>21</v>
       </c>
@@ -8819,10 +8846,10 @@
       </c>
       <c r="C426" s="5" t="str">
         <f>Оригинал!V8</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>21</v>
       </c>
@@ -8831,7 +8858,7 @@
       </c>
       <c r="C427" s="5" t="str">
         <f>Оригинал!V9</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8843,10 +8870,10 @@
       </c>
       <c r="C428" s="5" t="str">
         <f>Оригинал!V10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>21</v>
       </c>
@@ -8855,7 +8882,7 @@
       </c>
       <c r="C429" s="5" t="str">
         <f>Оригинал!V11</f>
-        <v>вых</v>
+        <v>9-16</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -8867,7 +8894,7 @@
       </c>
       <c r="C430" s="5" t="str">
         <f>Оригинал!V12</f>
-        <v>18-22</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8882,7 +8909,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>21</v>
       </c>
@@ -8891,10 +8918,10 @@
       </c>
       <c r="C432" s="5" t="str">
         <f>Оригинал!V14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>21</v>
       </c>
@@ -8903,10 +8930,10 @@
       </c>
       <c r="C433" s="5" t="str">
         <f>Оригинал!V15</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>21</v>
       </c>
@@ -8915,10 +8942,10 @@
       </c>
       <c r="C434" s="5" t="str">
         <f>Оригинал!V16</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>21</v>
       </c>
@@ -8927,7 +8954,7 @@
       </c>
       <c r="C435" s="5" t="str">
         <f>Оригинал!V17</f>
-        <v>9-11</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8966,7 +8993,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>21</v>
       </c>
@@ -8975,10 +9002,10 @@
       </c>
       <c r="C439" s="5" t="str">
         <f>Оригинал!V20</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-11</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>21</v>
       </c>
@@ -8987,7 +9014,7 @@
       </c>
       <c r="C440" s="5" t="str">
         <f>Оригинал!V21</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -8999,7 +9026,7 @@
       </c>
       <c r="C441" s="5" t="str">
         <f>Оригинал!V22</f>
-        <v>вых</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9035,7 +9062,7 @@
       </c>
       <c r="C444" s="5" t="str">
         <f>Оригинал!W5</f>
-        <v>9-24</v>
+        <v>0-10</v>
       </c>
     </row>
     <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9050,7 +9077,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>22</v>
       </c>
@@ -9059,10 +9086,10 @@
       </c>
       <c r="C446" s="5" t="str">
         <f>Оригинал!W7</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>22</v>
       </c>
@@ -9071,7 +9098,7 @@
       </c>
       <c r="C447" s="5" t="str">
         <f>Оригинал!W8</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -9095,10 +9122,10 @@
       </c>
       <c r="C449" s="5" t="str">
         <f>Оригинал!W10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>22</v>
       </c>
@@ -9107,7 +9134,7 @@
       </c>
       <c r="C450" s="5" t="str">
         <f>Оригинал!W11</f>
-        <v>18-22</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9134,7 +9161,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>22</v>
       </c>
@@ -9143,10 +9170,10 @@
       </c>
       <c r="C453" s="5" t="str">
         <f>Оригинал!W14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>22</v>
       </c>
@@ -9155,7 +9182,7 @@
       </c>
       <c r="C454" s="5" t="str">
         <f>Оригинал!W15</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9170,7 +9197,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>22</v>
       </c>
@@ -9179,7 +9206,7 @@
       </c>
       <c r="C456" s="5" t="str">
         <f>Оригинал!W17</f>
-        <v>9-11</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9218,7 +9245,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>22</v>
       </c>
@@ -9227,10 +9254,10 @@
       </c>
       <c r="C460" s="5" t="str">
         <f>Оригинал!W20</f>
-        <v>0-11</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>22</v>
       </c>
@@ -9239,7 +9266,7 @@
       </c>
       <c r="C461" s="5" t="str">
         <f>Оригинал!W21</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9251,7 +9278,7 @@
       </c>
       <c r="C462" s="5" t="str">
         <f>Оригинал!W22</f>
-        <v>вых</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9290,7 +9317,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>23</v>
       </c>
@@ -9299,7 +9326,7 @@
       </c>
       <c r="C466" s="5" t="str">
         <f>Оригинал!X6</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9314,7 +9341,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>23</v>
       </c>
@@ -9323,7 +9350,7 @@
       </c>
       <c r="C468" s="5" t="str">
         <f>Оригинал!X8</f>
-        <v>9-24</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -9338,7 +9365,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>23</v>
       </c>
@@ -9347,10 +9374,10 @@
       </c>
       <c r="C470" s="5" t="str">
         <f>Оригинал!X10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11-20</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>23</v>
       </c>
@@ -9359,7 +9386,7 @@
       </c>
       <c r="C471" s="5" t="str">
         <f>Оригинал!X11</f>
-        <v>18-22</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9383,7 +9410,7 @@
       </c>
       <c r="C473" s="5" t="str">
         <f>Оригинал!X13</f>
-        <v>0-10</v>
+        <v>18-22</v>
       </c>
     </row>
     <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9395,10 +9422,10 @@
       </c>
       <c r="C474" s="5" t="str">
         <f>Оригинал!X14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>23</v>
       </c>
@@ -9407,10 +9434,10 @@
       </c>
       <c r="C475" s="5" t="str">
         <f>Оригинал!X15</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>23</v>
       </c>
@@ -9419,10 +9446,10 @@
       </c>
       <c r="C476" s="5" t="str">
         <f>Оригинал!X16</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>23</v>
       </c>
@@ -9431,10 +9458,10 @@
       </c>
       <c r="C477" s="5" t="str">
         <f>Оригинал!X17</f>
-        <v>9-11</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>23</v>
       </c>
@@ -9443,7 +9470,7 @@
       </c>
       <c r="C478" s="5" t="str">
         <f>Оригинал!X18</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9494,7 +9521,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>23</v>
       </c>
@@ -9503,10 +9530,10 @@
       </c>
       <c r="C483" s="5" t="str">
         <f>Оригинал!X22</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>23</v>
       </c>
@@ -9515,7 +9542,7 @@
       </c>
       <c r="C484" s="5" t="str">
         <f>Оригинал!X23</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -9551,10 +9578,10 @@
       </c>
       <c r="C487" s="5" t="str">
         <f>Оригинал!Y6</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>24</v>
       </c>
@@ -9563,7 +9590,7 @@
       </c>
       <c r="C488" s="5" t="str">
         <f>Оригинал!Y7</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9590,7 +9617,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>24</v>
       </c>
@@ -9599,10 +9626,10 @@
       </c>
       <c r="C491" s="5" t="str">
         <f>Оригинал!Y10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>11-20</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>24</v>
       </c>
@@ -9611,7 +9638,7 @@
       </c>
       <c r="C492" s="5" t="str">
         <f>Оригинал!Y11</f>
-        <v>вых</v>
+        <v>18-22</v>
       </c>
     </row>
     <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9623,10 +9650,10 @@
       </c>
       <c r="C493" s="5" t="str">
         <f>Оригинал!Y12</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>24</v>
       </c>
@@ -9635,10 +9662,10 @@
       </c>
       <c r="C494" s="5" t="str">
         <f>Оригинал!Y13</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>24</v>
       </c>
@@ -9647,7 +9674,7 @@
       </c>
       <c r="C495" s="5" t="str">
         <f>Оригинал!Y14</f>
-        <v>отп</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9671,10 +9698,10 @@
       </c>
       <c r="C497" s="5" t="str">
         <f>Оригинал!Y16</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>24</v>
       </c>
@@ -9683,10 +9710,10 @@
       </c>
       <c r="C498" s="5" t="str">
         <f>Оригинал!Y17</f>
-        <v>9-11</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>24</v>
       </c>
@@ -9695,7 +9722,7 @@
       </c>
       <c r="C499" s="5" t="str">
         <f>Оригинал!Y18</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9758,7 +9785,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>24</v>
       </c>
@@ -9767,10 +9794,10 @@
       </c>
       <c r="C505" s="5" t="str">
         <f>Оригинал!Y23</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>25</v>
       </c>
@@ -9779,10 +9806,10 @@
       </c>
       <c r="C506" s="5" t="str">
         <f>Оригинал!Z4</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>25</v>
       </c>
@@ -9791,10 +9818,10 @@
       </c>
       <c r="C507" s="5" t="str">
         <f>Оригинал!Z5</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>25</v>
       </c>
@@ -9803,10 +9830,10 @@
       </c>
       <c r="C508" s="5" t="str">
         <f>Оригинал!Z6</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>25</v>
       </c>
@@ -9815,10 +9842,10 @@
       </c>
       <c r="C509" s="5" t="str">
         <f>Оригинал!Z7</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>25</v>
       </c>
@@ -9827,10 +9854,10 @@
       </c>
       <c r="C510" s="5" t="str">
         <f>Оригинал!Z8</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>25</v>
       </c>
@@ -9839,10 +9866,10 @@
       </c>
       <c r="C511" s="5" t="str">
         <f>Оригинал!Z9</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>25</v>
       </c>
@@ -9851,10 +9878,10 @@
       </c>
       <c r="C512" s="5" t="str">
         <f>Оригинал!Z10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11-20</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>25</v>
       </c>
@@ -9863,10 +9890,10 @@
       </c>
       <c r="C513" s="5" t="str">
         <f>Оригинал!Z11</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>25</v>
       </c>
@@ -9875,7 +9902,7 @@
       </c>
       <c r="C514" s="5" t="str">
         <f>Оригинал!Z12</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9887,7 +9914,7 @@
       </c>
       <c r="C515" s="5" t="str">
         <f>Оригинал!Z13</f>
-        <v>вых</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9899,10 +9926,10 @@
       </c>
       <c r="C516" s="5" t="str">
         <f>Оригинал!Z14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>25</v>
       </c>
@@ -9911,10 +9938,10 @@
       </c>
       <c r="C517" s="5" t="str">
         <f>Оригинал!Z15</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>25</v>
       </c>
@@ -9923,7 +9950,7 @@
       </c>
       <c r="C518" s="5" t="str">
         <f>Оригинал!Z16</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9935,7 +9962,7 @@
       </c>
       <c r="C519" s="5" t="str">
         <f>Оригинал!Z17</f>
-        <v>вых</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -9998,7 +10025,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>25</v>
       </c>
@@ -10007,7 +10034,7 @@
       </c>
       <c r="C525" s="5" t="str">
         <f>Оригинал!Z22</f>
-        <v>вых</v>
+        <v>0-11</v>
       </c>
     </row>
     <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10022,7 +10049,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>26</v>
       </c>
@@ -10031,10 +10058,10 @@
       </c>
       <c r="C527" s="5" t="str">
         <f>Оригинал!AA4</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>26</v>
       </c>
@@ -10043,10 +10070,10 @@
       </c>
       <c r="C528" s="5" t="str">
         <f>Оригинал!AA5</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-16</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>26</v>
       </c>
@@ -10055,7 +10082,7 @@
       </c>
       <c r="C529" s="5" t="str">
         <f>Оригинал!AA6</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10079,10 +10106,10 @@
       </c>
       <c r="C531" s="5" t="str">
         <f>Оригинал!AA8</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>26</v>
       </c>
@@ -10091,10 +10118,10 @@
       </c>
       <c r="C532" s="5" t="str">
         <f>Оригинал!AA9</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>26</v>
       </c>
@@ -10103,7 +10130,7 @@
       </c>
       <c r="C533" s="5" t="str">
         <f>Оригинал!AA10</f>
-        <v>отп</v>
+        <v>11-20</v>
       </c>
     </row>
     <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10130,7 +10157,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>26</v>
       </c>
@@ -10139,7 +10166,7 @@
       </c>
       <c r="C536" s="5" t="str">
         <f>Оригинал!AA13</f>
-        <v>0-10</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10151,7 +10178,7 @@
       </c>
       <c r="C537" s="5" t="str">
         <f>Оригинал!AA14</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
@@ -10163,10 +10190,10 @@
       </c>
       <c r="C538" s="5" t="str">
         <f>Оригинал!AA15</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>26</v>
       </c>
@@ -10175,7 +10202,7 @@
       </c>
       <c r="C539" s="5" t="str">
         <f>Оригинал!AA16</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10187,7 +10214,7 @@
       </c>
       <c r="C540" s="5" t="str">
         <f>Оригинал!AA17</f>
-        <v>вых</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10250,7 +10277,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>26</v>
       </c>
@@ -10259,7 +10286,7 @@
       </c>
       <c r="C546" s="5" t="str">
         <f>Оригинал!AA22</f>
-        <v>0-11</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10274,7 +10301,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>27</v>
       </c>
@@ -10283,10 +10310,10 @@
       </c>
       <c r="C548" s="5" t="str">
         <f>Оригинал!AB4</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>27</v>
       </c>
@@ -10295,10 +10322,10 @@
       </c>
       <c r="C549" s="5" t="str">
         <f>Оригинал!AB5</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>27</v>
       </c>
@@ -10307,10 +10334,10 @@
       </c>
       <c r="C550" s="5" t="str">
         <f>Оригинал!AB6</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>27</v>
       </c>
@@ -10319,7 +10346,7 @@
       </c>
       <c r="C551" s="5" t="str">
         <f>Оригинал!AB7</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10334,7 +10361,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>27</v>
       </c>
@@ -10343,10 +10370,10 @@
       </c>
       <c r="C553" s="5" t="str">
         <f>Оригинал!AB9</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>27</v>
       </c>
@@ -10355,10 +10382,10 @@
       </c>
       <c r="C554" s="5" t="str">
         <f>Оригинал!AB10</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>16-20</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>27</v>
       </c>
@@ -10367,7 +10394,7 @@
       </c>
       <c r="C555" s="5" t="str">
         <f>Оригинал!AB11</f>
-        <v>вых</v>
+        <v>9-18</v>
       </c>
     </row>
     <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10391,10 +10418,10 @@
       </c>
       <c r="C557" s="5" t="str">
         <f>Оригинал!AB13</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>27</v>
       </c>
@@ -10403,7 +10430,7 @@
       </c>
       <c r="C558" s="5" t="str">
         <f>Оригинал!AB14</f>
-        <v>отп</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10418,7 +10445,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>27</v>
       </c>
@@ -10427,10 +10454,10 @@
       </c>
       <c r="C560" s="5" t="str">
         <f>Оригинал!AB16</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>27</v>
       </c>
@@ -10439,10 +10466,10 @@
       </c>
       <c r="C561" s="5" t="str">
         <f>Оригинал!AB17</f>
-        <v>9-11</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>27</v>
       </c>
@@ -10451,7 +10478,7 @@
       </c>
       <c r="C562" s="5" t="str">
         <f>Оригинал!AB18</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10478,7 +10505,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>27</v>
       </c>
@@ -10487,10 +10514,10 @@
       </c>
       <c r="C565" s="5" t="str">
         <f>Оригинал!AB20</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-11</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>27</v>
       </c>
@@ -10499,7 +10526,7 @@
       </c>
       <c r="C566" s="5" t="str">
         <f>Оригинал!AB21</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10514,7 +10541,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>27</v>
       </c>
@@ -10523,10 +10550,10 @@
       </c>
       <c r="C568" s="5" t="str">
         <f>Оригинал!AB23</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>28</v>
       </c>
@@ -10535,10 +10562,10 @@
       </c>
       <c r="C569" s="5" t="str">
         <f>Оригинал!AC4</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>28</v>
       </c>
@@ -10547,7 +10574,7 @@
       </c>
       <c r="C570" s="5" t="str">
         <f>Оригинал!AC5</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10562,7 +10589,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>28</v>
       </c>
@@ -10571,10 +10598,10 @@
       </c>
       <c r="C572" s="5" t="str">
         <f>Оригинал!AC7</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>28</v>
       </c>
@@ -10583,10 +10610,10 @@
       </c>
       <c r="C573" s="5" t="str">
         <f>Оригинал!AC8</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>28</v>
       </c>
@@ -10595,7 +10622,7 @@
       </c>
       <c r="C574" s="5" t="str">
         <f>Оригинал!AC9</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10607,7 +10634,7 @@
       </c>
       <c r="C575" s="5" t="str">
         <f>Оригинал!AC10</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
@@ -10619,7 +10646,7 @@
       </c>
       <c r="C576" s="5" t="str">
         <f>Оригинал!AC11</f>
-        <v>18-22</v>
+        <v>9-16</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
@@ -10631,7 +10658,7 @@
       </c>
       <c r="C577" s="5" t="str">
         <f>Оригинал!AC12</f>
-        <v>9-24</v>
+        <v>9-18</v>
       </c>
     </row>
     <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10643,7 +10670,7 @@
       </c>
       <c r="C578" s="5" t="str">
         <f>Оригинал!AC13</f>
-        <v>вых</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10655,10 +10682,10 @@
       </c>
       <c r="C579" s="5" t="str">
         <f>Оригинал!AC14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>28</v>
       </c>
@@ -10667,7 +10694,7 @@
       </c>
       <c r="C580" s="5" t="str">
         <f>Оригинал!AC15</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10682,7 +10709,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>28</v>
       </c>
@@ -10691,7 +10718,7 @@
       </c>
       <c r="C582" s="5" t="str">
         <f>Оригинал!AC17</f>
-        <v>9-11</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10730,7 +10757,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>28</v>
       </c>
@@ -10739,10 +10766,10 @@
       </c>
       <c r="C586" s="5" t="str">
         <f>Оригинал!AC20</f>
-        <v>0-11</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>28</v>
       </c>
@@ -10751,10 +10778,10 @@
       </c>
       <c r="C587" s="5" t="str">
         <f>Оригинал!AC21</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>28</v>
       </c>
@@ -10763,7 +10790,7 @@
       </c>
       <c r="C588" s="5" t="str">
         <f>Оригинал!AC22</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10778,7 +10805,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>29</v>
       </c>
@@ -10787,7 +10814,7 @@
       </c>
       <c r="C590" s="5" t="str">
         <f>Оригинал!AD4</f>
-        <v>вых</v>
+        <v>9-13</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
@@ -10802,7 +10829,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>29</v>
       </c>
@@ -10811,10 +10838,10 @@
       </c>
       <c r="C592" s="5" t="str">
         <f>Оригинал!AD6</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>29</v>
       </c>
@@ -10823,10 +10850,10 @@
       </c>
       <c r="C593" s="5" t="str">
         <f>Оригинал!AD7</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>29</v>
       </c>
@@ -10835,7 +10862,7 @@
       </c>
       <c r="C594" s="5" t="str">
         <f>Оригинал!AD8</f>
-        <v>9-24</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
@@ -10850,7 +10877,7 @@
         <v>9-13</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>29</v>
       </c>
@@ -10859,7 +10886,7 @@
       </c>
       <c r="C596" s="5" t="str">
         <f>Оригинал!AD10</f>
-        <v>11-20</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10874,7 +10901,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>29</v>
       </c>
@@ -10883,10 +10910,10 @@
       </c>
       <c r="C598" s="5" t="str">
         <f>Оригинал!AD12</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18-22</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>29</v>
       </c>
@@ -10895,7 +10922,7 @@
       </c>
       <c r="C599" s="5" t="str">
         <f>Оригинал!AD13</f>
-        <v>0-10</v>
+        <v>отп</v>
       </c>
     </row>
     <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -10907,10 +10934,10 @@
       </c>
       <c r="C600" s="5" t="str">
         <f>Оригинал!AD14</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>29</v>
       </c>
@@ -10919,10 +10946,10 @@
       </c>
       <c r="C601" s="5" t="str">
         <f>Оригинал!AD15</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>29</v>
       </c>
@@ -10931,10 +10958,10 @@
       </c>
       <c r="C602" s="5" t="str">
         <f>Оригинал!AD16</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-24</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>29</v>
       </c>
@@ -10943,10 +10970,10 @@
       </c>
       <c r="C603" s="5" t="str">
         <f>Оригинал!AD17</f>
-        <v>9-11</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>29</v>
       </c>
@@ -10955,7 +10982,7 @@
       </c>
       <c r="C604" s="5" t="str">
         <f>Оригинал!AD18</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11018,7 +11045,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>29</v>
       </c>
@@ -11027,7 +11054,7 @@
       </c>
       <c r="C610" s="5" t="str">
         <f>Оригинал!AD23</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
@@ -11039,10 +11066,10 @@
       </c>
       <c r="C611" s="5" t="str">
         <f>Оригинал!AE4</f>
-        <v>9-11</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>30</v>
       </c>
@@ -11051,10 +11078,10 @@
       </c>
       <c r="C612" s="5" t="str">
         <f>Оригинал!AE5</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9-13</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>30</v>
       </c>
@@ -11063,10 +11090,10 @@
       </c>
       <c r="C613" s="5" t="str">
         <f>Оригинал!AE6</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>30</v>
       </c>
@@ -11075,7 +11102,7 @@
       </c>
       <c r="C614" s="5" t="str">
         <f>Оригинал!AE7</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="615" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11111,7 +11138,7 @@
       </c>
       <c r="C617" s="5" t="str">
         <f>Оригинал!AE10</f>
-        <v>11-15</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11126,7 +11153,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="619" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>30</v>
       </c>
@@ -11135,7 +11162,7 @@
       </c>
       <c r="C619" s="5" t="str">
         <f>Оригинал!AE12</f>
-        <v>вых</v>
+        <v>18-22</v>
       </c>
     </row>
     <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11147,10 +11174,10 @@
       </c>
       <c r="C620" s="5" t="str">
         <f>Оригинал!AE13</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>30</v>
       </c>
@@ -11159,7 +11186,7 @@
       </c>
       <c r="C621" s="5" t="str">
         <f>Оригинал!AE14</f>
-        <v>отп</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11174,7 +11201,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>30</v>
       </c>
@@ -11183,10 +11210,10 @@
       </c>
       <c r="C623" s="5" t="str">
         <f>Оригинал!AE16</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>30</v>
       </c>
@@ -11195,10 +11222,10 @@
       </c>
       <c r="C624" s="5" t="str">
         <f>Оригинал!AE17</f>
-        <v>9-11</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+        <v>отп</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>30</v>
       </c>
@@ -11207,7 +11234,7 @@
       </c>
       <c r="C625" s="5" t="str">
         <f>Оригинал!AE18</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11234,7 +11261,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>30</v>
       </c>
@@ -11243,10 +11270,10 @@
       </c>
       <c r="C628" s="5" t="str">
         <f>Оригинал!AE20</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>30</v>
       </c>
@@ -11255,7 +11282,7 @@
       </c>
       <c r="C629" s="5" t="str">
         <f>Оригинал!AE21</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11270,7 +11297,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>30</v>
       </c>
@@ -11279,10 +11306,10 @@
       </c>
       <c r="C631" s="5" t="str">
         <f>Оригинал!AE23</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>31</v>
       </c>
@@ -11291,7 +11318,7 @@
       </c>
       <c r="C632" s="9" t="str">
         <f>Оригинал!AF4</f>
-        <v>9-13</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11306,7 +11333,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>31</v>
       </c>
@@ -11315,10 +11342,10 @@
       </c>
       <c r="C634" s="9" t="str">
         <f>Оригинал!AF6</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>31</v>
       </c>
@@ -11327,7 +11354,7 @@
       </c>
       <c r="C635" s="9" t="str">
         <f>Оригинал!AF7</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11342,7 +11369,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>31</v>
       </c>
@@ -11351,10 +11378,10 @@
       </c>
       <c r="C637" s="9" t="str">
         <f>Оригинал!AF9</f>
-        <v>9-13</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>31</v>
       </c>
@@ -11363,10 +11390,10 @@
       </c>
       <c r="C638" s="9" t="str">
         <f>Оригинал!AF10</f>
-        <v>0-9</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>31</v>
       </c>
@@ -11375,10 +11402,10 @@
       </c>
       <c r="C639" s="9" t="str">
         <f>Оригинал!AF11</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-16</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>31</v>
       </c>
@@ -11387,10 +11414,10 @@
       </c>
       <c r="C640" s="9" t="str">
         <f>Оригинал!AF12</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-12</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>31</v>
       </c>
@@ -11399,10 +11426,10 @@
       </c>
       <c r="C641" s="9" t="str">
         <f>Оригинал!AF13</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>9-16</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>31</v>
       </c>
@@ -11411,7 +11438,7 @@
       </c>
       <c r="C642" s="9" t="str">
         <f>Оригинал!AF14</f>
-        <v>вых</v>
+        <v>9-24</v>
       </c>
     </row>
     <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11423,10 +11450,10 @@
       </c>
       <c r="C643" s="9" t="str">
         <f>Оригинал!AF15</f>
-        <v>отп</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>31</v>
       </c>
@@ -11435,10 +11462,10 @@
       </c>
       <c r="C644" s="9" t="str">
         <f>Оригинал!AF16</f>
-        <v>9-24</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+        <v>вых</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>31</v>
       </c>
@@ -11447,7 +11474,7 @@
       </c>
       <c r="C645" s="9" t="str">
         <f>Оригинал!AF17</f>
-        <v>9-11</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11459,7 +11486,7 @@
       </c>
       <c r="C646" s="9" t="str">
         <f>Оригинал!AF18</f>
-        <v>отп</v>
+        <v>вых</v>
       </c>
     </row>
     <row r="647" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11486,7 +11513,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="649" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>31</v>
       </c>
@@ -11495,10 +11522,10 @@
       </c>
       <c r="C649" s="9" t="str">
         <f>Оригинал!AF20</f>
-        <v>вых</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>0-9</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>31</v>
       </c>
@@ -11507,7 +11534,7 @@
       </c>
       <c r="C650" s="9" t="str">
         <f>Оригинал!AF21</f>
-        <v>вых</v>
+        <v>0-9</v>
       </c>
     </row>
     <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
@@ -11522,7 +11549,7 @@
         <v>вых</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>31</v>
       </c>
@@ -11531,7 +11558,7 @@
       </c>
       <c r="C652" s="9" t="str">
         <f>Оригинал!AF23</f>
-        <v>0-9</v>
+        <v>вых</v>
       </c>
     </row>
   </sheetData>
@@ -11540,15 +11567,20 @@
       <filters>
         <filter val="0-10"/>
         <filter val="0-11"/>
+        <filter val="0-7"/>
         <filter val="0-9"/>
-        <filter val="11-15"/>
         <filter val="11-20"/>
-        <filter val="18-19"/>
+        <filter val="16-20"/>
+        <filter val="18-20"/>
         <filter val="18-22"/>
+        <filter val="7-9"/>
         <filter val="9-10"/>
         <filter val="9-11"/>
+        <filter val="9-12"/>
         <filter val="9-13"/>
         <filter val="9-16"/>
+        <filter val="9-17"/>
+        <filter val="9-18"/>
         <filter val="9-24"/>
       </filters>
     </filterColumn>
